--- a/+iamd/test_data.xlsx
+++ b/+iamd/test_data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\Purdue MSAA\SoS\Project\ABM\+iamd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A554DCE-0827-4FA5-86EA-C226CA334FDC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98C9B28-A659-4214-B91C-408BD021FA28}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="11670" xr2:uid="{B7B49BB4-2100-4972-BF36-A5DC454E856B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="11670" activeTab="3" xr2:uid="{D126A4A5-C137-4A8A-B3A0-0AB3C4A4E014}"/>
   </bookViews>
   <sheets>
-    <sheet name="Radar Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Command Data" sheetId="3" r:id="rId2"/>
-    <sheet name="Battery Data" sheetId="2" r:id="rId3"/>
-    <sheet name="Satellite Data" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Radar Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Satellite Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Command Data" sheetId="4" r:id="rId4"/>
+    <sheet name="Battery Data" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,51 +29,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
-  <si>
-    <t>Command 1</t>
-  </si>
-  <si>
-    <t>Time of Assign</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
   <si>
     <t>Missile ID</t>
   </si>
   <si>
-    <t>Time of Detect</t>
+    <t>Detect Times</t>
   </si>
   <si>
-    <t>Radar 1</t>
+    <t>Cues</t>
   </si>
   <si>
-    <t>Radar 2</t>
+    <t>Assign Times</t>
   </si>
   <si>
-    <t>Radar 3</t>
-  </si>
-  <si>
-    <t>Time of Intercept</t>
-  </si>
-  <si>
-    <t>Battery 1</t>
-  </si>
-  <si>
-    <t>Battery 2</t>
-  </si>
-  <si>
-    <t>Battery 3</t>
-  </si>
-  <si>
-    <t>Battery 4</t>
-  </si>
-  <si>
-    <t>Satellite 1</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Cue</t>
+    <t>Intercept Times</t>
   </si>
 </sst>
 </file>
@@ -108,11 +79,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,210 +394,1427 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEF8457-536C-4C9C-8355-6394B8EFF142}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E299BF-3BC6-4566-948D-9140F8B42769}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2D47A7-3E0D-4E60-BD33-6FFE6C66DABB}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C951F3D9-36B9-4BF0-B470-D55745E0C6E5}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B7"/>
+      <selection activeCell="E2" sqref="E2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>37</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="F2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>49</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>104</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>111</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>114</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF382BAA-51BB-4A1F-A7C0-741F67414875}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B656FA-7EE1-4AB6-B736-1B3C1D638A1C}">
+  <dimension ref="A1:B139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+      <selection activeCell="A2" sqref="A2:B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>9</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>11</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>49</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>54</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>58</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>59</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>60</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>61</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>63</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>64</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>65</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>66</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>67</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>69</v>
+      </c>
+      <c r="B56">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>70</v>
+      </c>
+      <c r="B57">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>71</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>72</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>73</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>74</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>75</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>78</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>79</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>81</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>83</v>
+      </c>
+      <c r="B66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>84</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>85</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>87</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>88</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>89</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>90</v>
+      </c>
+      <c r="B72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>91</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>92</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>93</v>
+      </c>
+      <c r="B75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>94</v>
+      </c>
+      <c r="B76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>95</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>96</v>
+      </c>
+      <c r="B78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>97</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>98</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>99</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>100</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>101</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>102</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>104</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>105</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>106</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>107</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>108</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>111</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>112</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>113</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>114</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>116</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>117</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>118</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>119</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>120</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>121</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>123</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>124</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>127</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>128</v>
+      </c>
+      <c r="B103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>129</v>
+      </c>
+      <c r="B104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>131</v>
+      </c>
+      <c r="B105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>132</v>
+      </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>133</v>
+      </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>135</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>136</v>
+      </c>
+      <c r="B109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>137</v>
+      </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>138</v>
+      </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>139</v>
+      </c>
+      <c r="B112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>140</v>
+      </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>141</v>
+      </c>
+      <c r="B114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>142</v>
+      </c>
+      <c r="B115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>143</v>
+      </c>
+      <c r="B116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>144</v>
+      </c>
+      <c r="B117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>145</v>
+      </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>147</v>
+      </c>
+      <c r="B119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>149</v>
+      </c>
+      <c r="B120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>150</v>
+      </c>
+      <c r="B121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>151</v>
+      </c>
+      <c r="B122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>152</v>
+      </c>
+      <c r="B123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>153</v>
+      </c>
+      <c r="B124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>154</v>
+      </c>
+      <c r="B125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>155</v>
+      </c>
+      <c r="B126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>156</v>
+      </c>
+      <c r="B127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>158</v>
+      </c>
+      <c r="B128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>159</v>
+      </c>
+      <c r="B129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>160</v>
+      </c>
+      <c r="B130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>162</v>
+      </c>
+      <c r="B131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>163</v>
+      </c>
+      <c r="B132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>164</v>
+      </c>
+      <c r="B133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>165</v>
+      </c>
+      <c r="B134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>166</v>
+      </c>
+      <c r="B135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>167</v>
+      </c>
+      <c r="B136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>168</v>
+      </c>
+      <c r="B137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>169</v>
+      </c>
+      <c r="B138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>170</v>
+      </c>
+      <c r="B139">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950A62E9-D36D-4819-B7B9-4ABDF18038F8}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C80117-EBFD-417F-8FAF-5FD084AD08B3}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB11B8C-8423-4E17-8B82-44AF230D7896}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>92</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>58</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/+iamd/test_data.xlsx
+++ b/+iamd/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\Purdue MSAA\SoS\Project\ABM\+iamd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98C9B28-A659-4214-B91C-408BD021FA28}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3020284E-7123-4BCB-827D-A8E05F70415F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="11670" activeTab="3" xr2:uid="{D126A4A5-C137-4A8A-B3A0-0AB3C4A4E014}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="11670" activeTab="3" xr2:uid="{BA4361F8-844B-4332-80EB-F1F5236C0E12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E299BF-3BC6-4566-948D-9140F8B42769}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16A5000-0519-4A4B-890A-7F451CE6A22D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -406,11 +406,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C951F3D9-36B9-4BF0-B470-D55745E0C6E5}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7812D73A-BFE4-41DF-BC17-0A5367B4602A}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F6"/>
+      <selection activeCell="E2" sqref="E2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,90 +437,98 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>54</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>68</v>
+      </c>
+      <c r="E5">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>90</v>
-      </c>
-      <c r="C4">
+      <c r="F5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>101</v>
+      </c>
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="F6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
         <v>104</v>
       </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>111</v>
-      </c>
-      <c r="C5">
+      <c r="E7">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>114</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>109</v>
+      <c r="F7">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -529,11 +537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B656FA-7EE1-4AB6-B736-1B3C1D638A1C}">
-  <dimension ref="A1:B139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47444F20-CCDE-48A2-8A64-2827473B2699}">
+  <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B139"/>
+      <selection activeCell="A2" sqref="A2:B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +556,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -556,7 +564,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -564,7 +572,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -572,7 +580,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -580,7 +588,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -588,7 +596,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -596,7 +604,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -604,7 +612,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -612,7 +620,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -620,7 +628,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -628,7 +636,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -636,15 +644,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -652,7 +660,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -660,7 +668,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -668,7 +676,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -676,7 +684,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -684,7 +692,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -692,7 +700,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -700,7 +708,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -708,23 +716,23 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -732,7 +740,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -740,7 +748,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -748,7 +756,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -756,7 +764,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -764,7 +772,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -772,31 +780,31 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -804,7 +812,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -812,7 +820,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -820,143 +828,143 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -964,7 +972,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -972,7 +980,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -980,303 +988,303 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>10</v>
@@ -1284,7 +1292,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>10</v>
@@ -1292,7 +1300,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>10</v>
@@ -1300,7 +1308,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>10</v>
@@ -1308,7 +1316,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>10</v>
@@ -1316,7 +1324,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>10</v>
@@ -1324,7 +1332,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>10</v>
@@ -1332,7 +1340,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>10</v>
@@ -1340,7 +1348,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>10</v>
@@ -1348,7 +1356,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>10</v>
@@ -1356,7 +1364,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>10</v>
@@ -1364,7 +1372,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>10</v>
@@ -1372,7 +1380,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>10</v>
@@ -1380,7 +1388,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>10</v>
@@ -1388,7 +1396,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>10</v>
@@ -1396,7 +1404,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>10</v>
@@ -1404,7 +1412,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>10</v>
@@ -1412,7 +1420,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>10</v>
@@ -1420,7 +1428,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>10</v>
@@ -1428,7 +1436,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>10</v>
@@ -1436,7 +1444,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>10</v>
@@ -1444,7 +1452,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>10</v>
@@ -1452,7 +1460,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>10</v>
@@ -1460,7 +1468,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>10</v>
@@ -1468,7 +1476,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>10</v>
@@ -1476,7 +1484,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>10</v>
@@ -1484,7 +1492,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>10</v>
@@ -1492,7 +1500,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>10</v>
@@ -1500,7 +1508,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>10</v>
@@ -1508,7 +1516,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>10</v>
@@ -1516,7 +1524,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>10</v>
@@ -1524,7 +1532,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>10</v>
@@ -1532,7 +1540,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>10</v>
@@ -1540,7 +1548,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>10</v>
@@ -1548,7 +1556,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>10</v>
@@ -1556,7 +1564,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>10</v>
@@ -1564,7 +1572,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>10</v>
@@ -1572,7 +1580,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>10</v>
@@ -1580,7 +1588,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>10</v>
@@ -1588,7 +1596,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>10</v>
@@ -1596,7 +1604,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>10</v>
@@ -1604,7 +1612,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>10</v>
@@ -1612,7 +1620,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>10</v>
@@ -1620,7 +1628,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>10</v>
@@ -1628,7 +1636,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>10</v>
@@ -1636,7 +1644,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>10</v>
@@ -1644,9 +1652,273 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
         <v>170</v>
       </c>
-      <c r="B139">
+      <c r="B172">
         <v>10</v>
       </c>
     </row>
@@ -1656,11 +1928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C80117-EBFD-417F-8FAF-5FD084AD08B3}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656529FC-6A89-46CE-B73E-0F0679683247}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B9"/>
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,58 +1947,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>115</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1734,7 +2006,23 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>119</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1743,11 +2031,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB11B8C-8423-4E17-8B82-44AF230D7896}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4108031-E4E7-4F9C-A2FA-B4DCBA9FB748}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,38 +2068,70 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>81</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>110</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>113</v>
+      </c>
+      <c r="E4">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="F4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
         <v>92</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>58</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/+iamd/test_data.xlsx
+++ b/+iamd/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\Purdue MSAA\SoS\Project\ABM\+iamd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3020284E-7123-4BCB-827D-A8E05F70415F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC21B454-480D-4FEE-A1A3-B186CC346F8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="11670" activeTab="3" xr2:uid="{BA4361F8-844B-4332-80EB-F1F5236C0E12}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="11670" activeTab="3" xr2:uid="{2FE7DB12-C22B-4C01-AD36-2672B0E2DB5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16A5000-0519-4A4B-890A-7F451CE6A22D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D158D5-24B6-4105-A1E4-DCBC0E9B5ABA}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -406,11 +406,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7812D73A-BFE4-41DF-BC17-0A5367B4602A}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C963DF8E-BBB6-4C39-A92F-B43FE77AB5D2}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F7"/>
+      <selection activeCell="E2" sqref="E2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,98 +437,104 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>34</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>46</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>68</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>101</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>104</v>
-      </c>
-      <c r="E7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="F7">
-        <v>97</v>
+      <c r="D10">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -537,7 +543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47444F20-CCDE-48A2-8A64-2827473B2699}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B3E8FE-93D5-412B-A00F-D3FEE3367049}">
   <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -655,7 +661,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +813,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +973,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,7 +981,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1047,7 +1053,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,7 +1061,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1127,7 +1133,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1135,7 +1141,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1207,7 +1213,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1287,7 +1293,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1928,7 +1934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656529FC-6A89-46CE-B73E-0F0679683247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1893B08-20DB-4E1E-8791-F0FF2B10099F}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1950,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1974,7 +1980,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1998,7 +2004,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2006,7 +2012,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2014,7 +2020,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2022,7 +2028,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2031,11 +2037,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4108031-E4E7-4F9C-A2FA-B4DCBA9FB748}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA02D01-F925-4F2B-941E-CF18DC2E1773}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,70 +2074,72 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>33</v>
+      </c>
+      <c r="E3">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>110</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
       <c r="F3">
-        <v>41</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>92</v>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/+iamd/test_data.xlsx
+++ b/+iamd/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\Purdue MSAA\SoS\Project\ABM\+iamd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC21B454-480D-4FEE-A1A3-B186CC346F8D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B8BAD7-7725-4AB0-AC65-6129D7B9ED82}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="11670" activeTab="3" xr2:uid="{2FE7DB12-C22B-4C01-AD36-2672B0E2DB5C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="11670" activeTab="3" xr2:uid="{A635F8E9-8950-4691-896B-06AA74B56212}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D158D5-24B6-4105-A1E4-DCBC0E9B5ABA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A4A5B8-696C-46A7-B11F-F7D581239802}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -406,11 +406,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C963DF8E-BBB6-4C39-A92F-B43FE77AB5D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8622245C-0FF1-4211-BBFD-F5D2A11E5366}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F4"/>
+      <selection activeCell="E2" sqref="E2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,32 +436,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>45</v>
-      </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>83</v>
-      </c>
       <c r="C3">
         <v>2</v>
       </c>
@@ -469,10 +457,10 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -480,13 +468,13 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>109</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -494,7 +482,13 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -502,7 +496,13 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -510,31 +510,43 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -543,7 +555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B3E8FE-93D5-412B-A00F-D3FEE3367049}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14C6F7D-C074-4B8D-A94C-76A1056D3977}">
   <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -573,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -581,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -589,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -653,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -733,7 +745,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -989,7 +1001,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +1009,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,7 +1017,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1025,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1021,7 +1033,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1029,7 +1041,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1037,7 +1049,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1045,7 +1057,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1053,7 +1065,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1213,7 +1225,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +1305,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,7 +1946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1893B08-20DB-4E1E-8791-F0FF2B10099F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E6FA84-ACC5-4834-AE0A-95EACF342463}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1956,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1972,7 +1984,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1980,7 +1992,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1988,7 +2000,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1996,7 +2008,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2004,7 +2016,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2012,7 +2024,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2020,7 +2032,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2028,7 +2040,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2037,8 +2049,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA02D01-F925-4F2B-941E-CF18DC2E1773}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EDC6FD-3F13-431B-915E-90634CE41A76}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -2073,32 +2085,20 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>52</v>
-      </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>91</v>
-      </c>
       <c r="C3">
         <v>2</v>
       </c>
@@ -2106,40 +2106,54 @@
         <v>33</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>109</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>110</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>81</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>78</v>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
